--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,142 +40,154 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
   </si>
   <si>
     <t>one</t>
@@ -545,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3643410852713178</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3535353535353535</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +726,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -766,13 +778,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +804,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -810,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -818,13 +830,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7012987012987013</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -844,13 +856,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.684931506849315</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -862,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -870,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6847457627118644</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L11">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -896,13 +908,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.676056338028169</v>
+        <v>0.6847457627118644</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -914,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -922,13 +934,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.651685393258427</v>
+        <v>0.6532905296950241</v>
       </c>
       <c r="L13">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M13">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -940,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -948,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6470588235294118</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -966,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -974,13 +986,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6444444444444445</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,13 +1012,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.640625</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1026,13 +1038,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5942857142857143</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L17">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1044,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1052,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5857142857142857</v>
+        <v>0.578125</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1070,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1078,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5769230769230769</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1096,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1104,13 +1116,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5329341317365269</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L20">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="M20">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1130,13 +1142,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5301204819277109</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1156,13 +1168,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1182,13 +1194,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.46</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1208,13 +1220,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.4473684210526316</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1226,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1234,13 +1246,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4444444444444444</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1260,13 +1272,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4360902255639098</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L26">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1286,13 +1298,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.3855421686746988</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L27">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1312,13 +1324,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.3627450980392157</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L28">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="M28">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1330,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>260</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1338,13 +1350,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.3268482490272374</v>
+        <v>0.41</v>
       </c>
       <c r="L29">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1356,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>173</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1364,13 +1376,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.2932330827067669</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1382,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1390,13 +1402,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.2931506849315069</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L31">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="M31">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1408,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>516</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1416,13 +1428,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.2877697841726619</v>
+        <v>0.3553921568627451</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1434,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>99</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1442,13 +1454,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2792792792792793</v>
+        <v>0.310958904109589</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1460,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>80</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1468,13 +1480,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.271523178807947</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1486,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>110</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1494,13 +1506,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.2679425837320574</v>
+        <v>0.271523178807947</v>
       </c>
       <c r="L35">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1512,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1520,13 +1532,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2572658772874058</v>
+        <v>0.2706766917293233</v>
       </c>
       <c r="L36">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1538,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>690</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1546,13 +1558,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.1960264900662252</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L37">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1564,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>607</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1572,13 +1584,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.1828644501278772</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="L38">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1590,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>639</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1598,13 +1610,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1598746081504702</v>
+        <v>0.2467672413793103</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="M39">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1613,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>268</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1624,13 +1636,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1337719298245614</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L40">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M40">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1642,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>395</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1650,25 +1662,25 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1324324324324324</v>
+        <v>0.2</v>
       </c>
       <c r="L41">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="M41">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>321</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1676,25 +1688,25 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1241050119331742</v>
+        <v>0.1920614596670935</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="M42">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>367</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1702,13 +1714,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1240875912408759</v>
+        <v>0.1563342318059299</v>
       </c>
       <c r="L43">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1720,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>360</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1728,13 +1740,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1181818181818182</v>
+        <v>0.125</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M44">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1746,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1754,13 +1766,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1099656357388316</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1772,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>259</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1780,25 +1792,25 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.07015902712815715</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L46">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>994</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1806,25 +1818,25 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.06886657101865136</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>649</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1832,25 +1844,129 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.04253472222222222</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L48">
+        <v>53</v>
+      </c>
+      <c r="M48">
+        <v>53</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49">
+        <v>0.1145584725536993</v>
+      </c>
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>48</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50">
+        <v>0.06902985074626866</v>
+      </c>
+      <c r="L50">
+        <v>74</v>
+      </c>
+      <c r="M50">
+        <v>74</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51">
+        <v>0.06312769010043041</v>
+      </c>
+      <c r="L51">
+        <v>44</v>
+      </c>
+      <c r="M51">
+        <v>45</v>
+      </c>
+      <c r="N51">
+        <v>0.98</v>
+      </c>
+      <c r="O51">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>0.04242424242424243</v>
+      </c>
+      <c r="L52">
         <v>49</v>
       </c>
-      <c r="M48">
-        <v>54</v>
-      </c>
-      <c r="N48">
-        <v>0.91</v>
-      </c>
-      <c r="O48">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>1103</v>
+      <c r="M52">
+        <v>51</v>
+      </c>
+      <c r="N52">
+        <v>0.96</v>
+      </c>
+      <c r="O52">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
